--- a/dataset/sql_datasets/individual_discipline.xlsx
+++ b/dataset/sql_datasets/individual_discipline.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F232CD1-2F00-4031-AC3E-213BB5510D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD6E7D7-C5F1-49ED-B1B9-FCC72C74D1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="885" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6990" yWindow="8625" windowWidth="29295" windowHeight="23760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="197">
   <si>
     <t>permittedGender</t>
   </si>
@@ -189,69 +198,15 @@
     <t>Welter (64-69kg)</t>
   </si>
   <si>
-    <t>Canoe Slalom</t>
-  </si>
-  <si>
     <t>Canoe</t>
   </si>
   <si>
-    <t>Kayak</t>
-  </si>
-  <si>
-    <t>Canoe Sprint</t>
-  </si>
-  <si>
-    <t>Canoe 1000m</t>
-  </si>
-  <si>
-    <t>Canoe 200m</t>
-  </si>
-  <si>
-    <t>Kayak 1000m</t>
-  </si>
-  <si>
-    <t>Kayak 200m</t>
-  </si>
-  <si>
-    <t>Kayak 500m</t>
-  </si>
-  <si>
-    <t>Cycling BMX Freestyle</t>
-  </si>
-  <si>
     <t>Park</t>
   </si>
   <si>
-    <t>Cycling BMX Racing</t>
-  </si>
-  <si>
-    <t>Cycling Mountain Bike</t>
-  </si>
-  <si>
-    <t>Cross-country</t>
-  </si>
-  <si>
-    <t>Cycling Road</t>
-  </si>
-  <si>
     <t>Road Race</t>
   </si>
   <si>
-    <t>Time Trial</t>
-  </si>
-  <si>
-    <t>Cycling Track</t>
-  </si>
-  <si>
-    <t>Keirin</t>
-  </si>
-  <si>
-    <t>Omnium</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
     <t>Diving</t>
   </si>
   <si>
@@ -622,6 +577,54 @@
   </si>
   <si>
     <t>disciplineName</t>
+  </si>
+  <si>
+    <t>BMX Freestyle</t>
+  </si>
+  <si>
+    <t>Cycling</t>
+  </si>
+  <si>
+    <t>BMX Racing</t>
+  </si>
+  <si>
+    <t>Mountain Bike Cross-country</t>
+  </si>
+  <si>
+    <t>Road Time Trial</t>
+  </si>
+  <si>
+    <t>Track Keirin</t>
+  </si>
+  <si>
+    <t>Track Sprint</t>
+  </si>
+  <si>
+    <t>Track Omnium</t>
+  </si>
+  <si>
+    <t>Sprint Canoe 1000m</t>
+  </si>
+  <si>
+    <t>Sprint Canoe 200m</t>
+  </si>
+  <si>
+    <t>Sprint Kayak 1000m</t>
+  </si>
+  <si>
+    <t>Sprint Kayak 200m</t>
+  </si>
+  <si>
+    <t>Sprint Kayak 500m</t>
+  </si>
+  <si>
+    <t>Slalom Kayak</t>
+  </si>
+  <si>
+    <t>SlalomCanoe</t>
+  </si>
+  <si>
+    <t>Slalom Canoe</t>
   </si>
 </sst>
 </file>
@@ -941,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,13 +958,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1969,7 +1972,7 @@
         <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
@@ -1983,7 +1986,7 @@
         <v>54</v>
       </c>
       <c r="C74" t="s">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
@@ -1997,7 +2000,7 @@
         <v>54</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
@@ -2011,7 +2014,7 @@
         <v>54</v>
       </c>
       <c r="C76" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
@@ -2022,10 +2025,10 @@
         <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C77" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
@@ -2036,10 +2039,10 @@
         <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
@@ -2050,10 +2053,10 @@
         <v>103</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C79" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
@@ -2064,10 +2067,10 @@
         <v>104</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C80" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
@@ -2078,10 +2081,10 @@
         <v>105</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
@@ -2092,10 +2095,10 @@
         <v>106</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C82" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
@@ -2106,10 +2109,10 @@
         <v>111</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="C83" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
@@ -2120,10 +2123,10 @@
         <v>112</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="C84" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
@@ -2134,10 +2137,10 @@
         <v>113</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="C85" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
@@ -2148,10 +2151,10 @@
         <v>114</v>
       </c>
       <c r="B86" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="C86" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
@@ -2162,10 +2165,10 @@
         <v>115</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
@@ -2176,10 +2179,10 @@
         <v>116</v>
       </c>
       <c r="B88" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="C88" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
@@ -2190,10 +2193,10 @@
         <v>117</v>
       </c>
       <c r="B89" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="C89" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
@@ -2204,10 +2207,10 @@
         <v>118</v>
       </c>
       <c r="B90" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="C90" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
@@ -2218,10 +2221,10 @@
         <v>119</v>
       </c>
       <c r="B91" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="C91" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -2232,10 +2235,10 @@
         <v>120</v>
       </c>
       <c r="B92" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="C92" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="D92" t="s">
         <v>4</v>
@@ -2246,10 +2249,10 @@
         <v>121</v>
       </c>
       <c r="B93" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="C93" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -2260,10 +2263,10 @@
         <v>122</v>
       </c>
       <c r="B94" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="C94" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
@@ -2274,10 +2277,10 @@
         <v>125</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
@@ -2288,10 +2291,10 @@
         <v>126</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="C96" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
@@ -2302,10 +2305,10 @@
         <v>127</v>
       </c>
       <c r="B97" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="C97" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
@@ -2316,10 +2319,10 @@
         <v>128</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="C98" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="D98" t="s">
         <v>4</v>
@@ -2330,10 +2333,10 @@
         <v>133</v>
       </c>
       <c r="B99" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C99" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
@@ -2344,10 +2347,10 @@
         <v>134</v>
       </c>
       <c r="B100" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C100" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D100" t="s">
         <v>4</v>
@@ -2358,10 +2361,10 @@
         <v>135</v>
       </c>
       <c r="B101" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C101" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
@@ -2372,10 +2375,10 @@
         <v>136</v>
       </c>
       <c r="B102" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C102" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D102" t="s">
         <v>4</v>
@@ -2386,13 +2389,13 @@
         <v>142</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C103" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D103" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2400,13 +2403,13 @@
         <v>144</v>
       </c>
       <c r="B104" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C104" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D104" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2414,13 +2417,13 @@
         <v>145</v>
       </c>
       <c r="B105" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C105" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D105" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2428,10 +2431,10 @@
         <v>147</v>
       </c>
       <c r="B106" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C106" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
@@ -2442,10 +2445,10 @@
         <v>148</v>
       </c>
       <c r="B107" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C107" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D107" t="s">
         <v>4</v>
@@ -2456,10 +2459,10 @@
         <v>151</v>
       </c>
       <c r="B108" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C108" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
@@ -2470,10 +2473,10 @@
         <v>152</v>
       </c>
       <c r="B109" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C109" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D109" t="s">
         <v>4</v>
@@ -2484,10 +2487,10 @@
         <v>155</v>
       </c>
       <c r="B110" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C110" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
@@ -2498,10 +2501,10 @@
         <v>156</v>
       </c>
       <c r="B111" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C111" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D111" t="s">
         <v>4</v>
@@ -2512,10 +2515,10 @@
         <v>161</v>
       </c>
       <c r="B112" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C112" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D112" t="s">
         <v>3</v>
@@ -2526,10 +2529,10 @@
         <v>162</v>
       </c>
       <c r="B113" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C113" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D113" t="s">
         <v>4</v>
@@ -2540,10 +2543,10 @@
         <v>167</v>
       </c>
       <c r="B114" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C114" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
@@ -2554,10 +2557,10 @@
         <v>168</v>
       </c>
       <c r="B115" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C115" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D115" t="s">
         <v>4</v>
@@ -2568,10 +2571,10 @@
         <v>169</v>
       </c>
       <c r="B116" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C116" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D116" t="s">
         <v>3</v>
@@ -2582,10 +2585,10 @@
         <v>170</v>
       </c>
       <c r="B117" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C117" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D117" t="s">
         <v>4</v>
@@ -2596,10 +2599,10 @@
         <v>171</v>
       </c>
       <c r="B118" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C118" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D118" t="s">
         <v>4</v>
@@ -2610,10 +2613,10 @@
         <v>172</v>
       </c>
       <c r="B119" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C119" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D119" t="s">
         <v>4</v>
@@ -2624,10 +2627,10 @@
         <v>173</v>
       </c>
       <c r="B120" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C120" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D120" t="s">
         <v>3</v>
@@ -2638,10 +2641,10 @@
         <v>174</v>
       </c>
       <c r="B121" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C121" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D121" t="s">
         <v>4</v>
@@ -2652,10 +2655,10 @@
         <v>175</v>
       </c>
       <c r="B122" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C122" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D122" t="s">
         <v>3</v>
@@ -2666,10 +2669,10 @@
         <v>176</v>
       </c>
       <c r="B123" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C123" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D123" t="s">
         <v>4</v>
@@ -2680,10 +2683,10 @@
         <v>177</v>
       </c>
       <c r="B124" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C124" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D124" t="s">
         <v>3</v>
@@ -2694,10 +2697,10 @@
         <v>178</v>
       </c>
       <c r="B125" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C125" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D125" t="s">
         <v>4</v>
@@ -2708,10 +2711,10 @@
         <v>179</v>
       </c>
       <c r="B126" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C126" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
@@ -2722,10 +2725,10 @@
         <v>180</v>
       </c>
       <c r="B127" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C127" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D127" t="s">
         <v>3</v>
@@ -2736,10 +2739,10 @@
         <v>182</v>
       </c>
       <c r="B128" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C128" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D128" t="s">
         <v>3</v>
@@ -2750,10 +2753,10 @@
         <v>183</v>
       </c>
       <c r="B129" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C129" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D129" t="s">
         <v>4</v>
@@ -2764,10 +2767,10 @@
         <v>184</v>
       </c>
       <c r="B130" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C130" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D130" t="s">
         <v>4</v>
@@ -2778,10 +2781,10 @@
         <v>185</v>
       </c>
       <c r="B131" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C131" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D131" t="s">
         <v>3</v>
@@ -2792,10 +2795,10 @@
         <v>186</v>
       </c>
       <c r="B132" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C132" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D132" t="s">
         <v>4</v>
@@ -2806,10 +2809,10 @@
         <v>187</v>
       </c>
       <c r="B133" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C133" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D133" t="s">
         <v>4</v>
@@ -2820,10 +2823,10 @@
         <v>188</v>
       </c>
       <c r="B134" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C134" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D134" t="s">
         <v>3</v>
@@ -2834,10 +2837,10 @@
         <v>189</v>
       </c>
       <c r="B135" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C135" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D135" t="s">
         <v>3</v>
@@ -2848,10 +2851,10 @@
         <v>190</v>
       </c>
       <c r="B136" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C136" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D136" t="s">
         <v>3</v>
@@ -2862,10 +2865,10 @@
         <v>191</v>
       </c>
       <c r="B137" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C137" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D137" t="s">
         <v>4</v>
@@ -2876,7 +2879,7 @@
         <v>192</v>
       </c>
       <c r="B138" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
@@ -2890,7 +2893,7 @@
         <v>193</v>
       </c>
       <c r="B139" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
@@ -2904,7 +2907,7 @@
         <v>195</v>
       </c>
       <c r="B140" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
@@ -2918,7 +2921,7 @@
         <v>196</v>
       </c>
       <c r="B141" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C141" t="s">
         <v>6</v>
@@ -2929,10 +2932,10 @@
         <v>209</v>
       </c>
       <c r="B142" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C142" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D142" t="s">
         <v>3</v>
@@ -2943,10 +2946,10 @@
         <v>210</v>
       </c>
       <c r="B143" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C143" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D143" t="s">
         <v>4</v>
@@ -2957,10 +2960,10 @@
         <v>217</v>
       </c>
       <c r="B144" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C144" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D144" t="s">
         <v>3</v>
@@ -2971,10 +2974,10 @@
         <v>218</v>
       </c>
       <c r="B145" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C145" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D145" t="s">
         <v>3</v>
@@ -2985,10 +2988,10 @@
         <v>219</v>
       </c>
       <c r="B146" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C146" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D146" t="s">
         <v>4</v>
@@ -2999,10 +3002,10 @@
         <v>221</v>
       </c>
       <c r="B147" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C147" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D147" t="s">
         <v>3</v>
@@ -3013,10 +3016,10 @@
         <v>222</v>
       </c>
       <c r="B148" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C148" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D148" t="s">
         <v>4</v>
@@ -3027,10 +3030,10 @@
         <v>223</v>
       </c>
       <c r="B149" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C149" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D149" t="s">
         <v>3</v>
@@ -3041,10 +3044,10 @@
         <v>225</v>
       </c>
       <c r="B150" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C150" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D150" t="s">
         <v>4</v>
@@ -3055,10 +3058,10 @@
         <v>226</v>
       </c>
       <c r="B151" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C151" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D151" t="s">
         <v>3</v>
@@ -3069,10 +3072,10 @@
         <v>228</v>
       </c>
       <c r="B152" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C152" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D152" t="s">
         <v>4</v>
@@ -3083,10 +3086,10 @@
         <v>229</v>
       </c>
       <c r="B153" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C153" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D153" t="s">
         <v>4</v>
@@ -3097,10 +3100,10 @@
         <v>230</v>
       </c>
       <c r="B154" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C154" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D154" t="s">
         <v>3</v>
@@ -3111,10 +3114,10 @@
         <v>231</v>
       </c>
       <c r="B155" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C155" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D155" t="s">
         <v>3</v>
@@ -3125,10 +3128,10 @@
         <v>232</v>
       </c>
       <c r="B156" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C156" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D156" t="s">
         <v>4</v>
@@ -3139,10 +3142,10 @@
         <v>233</v>
       </c>
       <c r="B157" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C157" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D157" t="s">
         <v>3</v>
@@ -3153,10 +3156,10 @@
         <v>234</v>
       </c>
       <c r="B158" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C158" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D158" t="s">
         <v>4</v>
@@ -3167,10 +3170,10 @@
         <v>235</v>
       </c>
       <c r="B159" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C159" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D159" t="s">
         <v>3</v>
@@ -3181,10 +3184,10 @@
         <v>237</v>
       </c>
       <c r="B160" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C160" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D160" t="s">
         <v>4</v>
@@ -3195,10 +3198,10 @@
         <v>238</v>
       </c>
       <c r="B161" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C161" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D161" t="s">
         <v>3</v>
@@ -3209,10 +3212,10 @@
         <v>239</v>
       </c>
       <c r="B162" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C162" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D162" t="s">
         <v>4</v>
@@ -3223,10 +3226,10 @@
         <v>240</v>
       </c>
       <c r="B163" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C163" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D163" t="s">
         <v>3</v>
@@ -3237,10 +3240,10 @@
         <v>241</v>
       </c>
       <c r="B164" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C164" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D164" t="s">
         <v>4</v>
@@ -3251,10 +3254,10 @@
         <v>242</v>
       </c>
       <c r="B165" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C165" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
@@ -3265,10 +3268,10 @@
         <v>243</v>
       </c>
       <c r="B166" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C166" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D166" t="s">
         <v>4</v>
@@ -3279,7 +3282,7 @@
         <v>244</v>
       </c>
       <c r="B167" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C167" t="s">
         <v>4</v>
@@ -3293,10 +3296,10 @@
         <v>245</v>
       </c>
       <c r="B168" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C168" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D168" t="s">
         <v>3</v>
@@ -3307,10 +3310,10 @@
         <v>246</v>
       </c>
       <c r="B169" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C169" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D169" t="s">
         <v>4</v>
@@ -3321,10 +3324,10 @@
         <v>247</v>
       </c>
       <c r="B170" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C170" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
@@ -3335,10 +3338,10 @@
         <v>248</v>
       </c>
       <c r="B171" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C171" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D171" t="s">
         <v>4</v>
@@ -3349,10 +3352,10 @@
         <v>249</v>
       </c>
       <c r="B172" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C172" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D172" t="s">
         <v>3</v>
@@ -3363,10 +3366,10 @@
         <v>250</v>
       </c>
       <c r="B173" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C173" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D173" t="s">
         <v>4</v>
@@ -3377,10 +3380,10 @@
         <v>251</v>
       </c>
       <c r="B174" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C174" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D174" t="s">
         <v>3</v>
@@ -3391,10 +3394,10 @@
         <v>252</v>
       </c>
       <c r="B175" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C175" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D175" t="s">
         <v>4</v>
@@ -3405,10 +3408,10 @@
         <v>253</v>
       </c>
       <c r="B176" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C176" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D176" t="s">
         <v>3</v>
@@ -3419,10 +3422,10 @@
         <v>254</v>
       </c>
       <c r="B177" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C177" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D177" t="s">
         <v>4</v>
@@ -3433,10 +3436,10 @@
         <v>255</v>
       </c>
       <c r="B178" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C178" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D178" t="s">
         <v>3</v>
@@ -3447,10 +3450,10 @@
         <v>256</v>
       </c>
       <c r="B179" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C179" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D179" t="s">
         <v>4</v>
@@ -3461,10 +3464,10 @@
         <v>257</v>
       </c>
       <c r="B180" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C180" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D180" t="s">
         <v>3</v>
@@ -3475,10 +3478,10 @@
         <v>258</v>
       </c>
       <c r="B181" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C181" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D181" t="s">
         <v>4</v>
@@ -3489,10 +3492,10 @@
         <v>259</v>
       </c>
       <c r="B182" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C182" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D182" t="s">
         <v>3</v>
@@ -3503,10 +3506,10 @@
         <v>260</v>
       </c>
       <c r="B183" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C183" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D183" t="s">
         <v>4</v>
@@ -3517,10 +3520,10 @@
         <v>261</v>
       </c>
       <c r="B184" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C184" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D184" t="s">
         <v>3</v>
@@ -3531,10 +3534,10 @@
         <v>262</v>
       </c>
       <c r="B185" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C185" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D185" t="s">
         <v>4</v>
@@ -3545,10 +3548,10 @@
         <v>263</v>
       </c>
       <c r="B186" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C186" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
@@ -3559,10 +3562,10 @@
         <v>264</v>
       </c>
       <c r="B187" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C187" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D187" t="s">
         <v>4</v>
@@ -3573,10 +3576,10 @@
         <v>271</v>
       </c>
       <c r="B188" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C188" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
@@ -3587,10 +3590,10 @@
         <v>272</v>
       </c>
       <c r="B189" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C189" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D189" t="s">
         <v>4</v>
@@ -3601,10 +3604,10 @@
         <v>273</v>
       </c>
       <c r="B190" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C190" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D190" t="s">
         <v>3</v>
@@ -3615,10 +3618,10 @@
         <v>274</v>
       </c>
       <c r="B191" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C191" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D191" t="s">
         <v>4</v>
@@ -3629,10 +3632,10 @@
         <v>275</v>
       </c>
       <c r="B192" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C192" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D192" t="s">
         <v>3</v>
@@ -3643,10 +3646,10 @@
         <v>276</v>
       </c>
       <c r="B193" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C193" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D193" t="s">
         <v>4</v>
@@ -3657,10 +3660,10 @@
         <v>277</v>
       </c>
       <c r="B194" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C194" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
@@ -3671,10 +3674,10 @@
         <v>278</v>
       </c>
       <c r="B195" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C195" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D195" t="s">
         <v>4</v>
@@ -3685,7 +3688,7 @@
         <v>280</v>
       </c>
       <c r="B196" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C196" t="s">
         <v>41</v>
@@ -3699,7 +3702,7 @@
         <v>281</v>
       </c>
       <c r="B197" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C197" t="s">
         <v>41</v>
@@ -3713,10 +3716,10 @@
         <v>284</v>
       </c>
       <c r="B198" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C198" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D198" t="s">
         <v>4</v>
@@ -3727,10 +3730,10 @@
         <v>285</v>
       </c>
       <c r="B199" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C199" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D199" t="s">
         <v>3</v>
@@ -3741,10 +3744,10 @@
         <v>286</v>
       </c>
       <c r="B200" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C200" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D200" t="s">
         <v>4</v>
@@ -3755,10 +3758,10 @@
         <v>287</v>
       </c>
       <c r="B201" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C201" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D201" t="s">
         <v>4</v>
@@ -3769,10 +3772,10 @@
         <v>288</v>
       </c>
       <c r="B202" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C202" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D202" t="s">
         <v>3</v>
@@ -3783,10 +3786,10 @@
         <v>289</v>
       </c>
       <c r="B203" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C203" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D203" t="s">
         <v>4</v>
@@ -3797,10 +3800,10 @@
         <v>290</v>
       </c>
       <c r="B204" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C204" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D204" t="s">
         <v>3</v>
@@ -3811,10 +3814,10 @@
         <v>291</v>
       </c>
       <c r="B205" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C205" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D205" t="s">
         <v>3</v>
@@ -3825,7 +3828,7 @@
         <v>295</v>
       </c>
       <c r="B206" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C206" t="s">
         <v>41</v>
@@ -3839,7 +3842,7 @@
         <v>296</v>
       </c>
       <c r="B207" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C207" t="s">
         <v>41</v>
@@ -3853,7 +3856,7 @@
         <v>297</v>
       </c>
       <c r="B208" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C208" t="s">
         <v>3</v>
@@ -3867,7 +3870,7 @@
         <v>298</v>
       </c>
       <c r="B209" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C209" t="s">
         <v>4</v>
@@ -3881,7 +3884,7 @@
         <v>299</v>
       </c>
       <c r="B210" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C210" t="s">
         <v>3</v>
@@ -3895,7 +3898,7 @@
         <v>301</v>
       </c>
       <c r="B211" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C211" t="s">
         <v>4</v>
@@ -3909,10 +3912,10 @@
         <v>306</v>
       </c>
       <c r="B212" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C212" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D212" t="s">
         <v>3</v>
@@ -3923,10 +3926,10 @@
         <v>307</v>
       </c>
       <c r="B213" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C213" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D213" t="s">
         <v>4</v>
@@ -3937,10 +3940,10 @@
         <v>308</v>
       </c>
       <c r="B214" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C214" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D214" t="s">
         <v>3</v>
@@ -3951,10 +3954,10 @@
         <v>309</v>
       </c>
       <c r="B215" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C215" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D215" t="s">
         <v>4</v>
@@ -3965,10 +3968,10 @@
         <v>310</v>
       </c>
       <c r="B216" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C216" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D216" t="s">
         <v>4</v>
@@ -3979,10 +3982,10 @@
         <v>311</v>
       </c>
       <c r="B217" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C217" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D217" t="s">
         <v>4</v>
@@ -3993,10 +3996,10 @@
         <v>312</v>
       </c>
       <c r="B218" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C218" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D218" t="s">
         <v>3</v>
@@ -4007,10 +4010,10 @@
         <v>313</v>
       </c>
       <c r="B219" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C219" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D219" t="s">
         <v>4</v>
@@ -4021,10 +4024,10 @@
         <v>314</v>
       </c>
       <c r="B220" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C220" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D220" t="s">
         <v>3</v>
@@ -4035,10 +4038,10 @@
         <v>315</v>
       </c>
       <c r="B221" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C221" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D221" t="s">
         <v>3</v>
@@ -4049,10 +4052,10 @@
         <v>316</v>
       </c>
       <c r="B222" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C222" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D222" t="s">
         <v>4</v>
@@ -4063,10 +4066,10 @@
         <v>317</v>
       </c>
       <c r="B223" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C223" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D223" t="s">
         <v>3</v>
@@ -4077,10 +4080,10 @@
         <v>318</v>
       </c>
       <c r="B224" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C224" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D224" t="s">
         <v>3</v>
@@ -4091,10 +4094,10 @@
         <v>319</v>
       </c>
       <c r="B225" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C225" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D225" t="s">
         <v>3</v>
@@ -4105,10 +4108,10 @@
         <v>320</v>
       </c>
       <c r="B226" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C226" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D226" t="s">
         <v>4</v>
@@ -4119,10 +4122,10 @@
         <v>321</v>
       </c>
       <c r="B227" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C227" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D227" t="s">
         <v>4</v>
@@ -4133,10 +4136,10 @@
         <v>322</v>
       </c>
       <c r="B228" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C228" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
@@ -4147,10 +4150,10 @@
         <v>323</v>
       </c>
       <c r="B229" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C229" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D229" t="s">
         <v>4</v>
@@ -4161,10 +4164,10 @@
         <v>324</v>
       </c>
       <c r="B230" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C230" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D230" t="s">
         <v>4</v>
@@ -4175,10 +4178,10 @@
         <v>325</v>
       </c>
       <c r="B231" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C231" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D231" t="s">
         <v>3</v>
@@ -4189,10 +4192,10 @@
         <v>326</v>
       </c>
       <c r="B232" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C232" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D232" t="s">
         <v>4</v>
@@ -4203,10 +4206,10 @@
         <v>327</v>
       </c>
       <c r="B233" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C233" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="D233" t="s">
         <v>3</v>
@@ -4217,10 +4220,10 @@
         <v>328</v>
       </c>
       <c r="B234" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C234" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="D234" t="s">
         <v>4</v>
@@ -4231,10 +4234,10 @@
         <v>329</v>
       </c>
       <c r="B235" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C235" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="D235" t="s">
         <v>3</v>
@@ -4245,10 +4248,10 @@
         <v>330</v>
       </c>
       <c r="B236" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C236" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D236" t="s">
         <v>3</v>
@@ -4259,10 +4262,10 @@
         <v>331</v>
       </c>
       <c r="B237" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C237" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D237" t="s">
         <v>3</v>
@@ -4273,10 +4276,10 @@
         <v>332</v>
       </c>
       <c r="B238" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C238" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D238" t="s">
         <v>3</v>
@@ -4287,10 +4290,10 @@
         <v>333</v>
       </c>
       <c r="B239" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C239" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D239" t="s">
         <v>3</v>
@@ -4301,10 +4304,10 @@
         <v>334</v>
       </c>
       <c r="B240" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C240" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D240" t="s">
         <v>3</v>
@@ -4315,10 +4318,10 @@
         <v>335</v>
       </c>
       <c r="B241" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C241" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D241" t="s">
         <v>3</v>
@@ -4329,10 +4332,10 @@
         <v>336</v>
       </c>
       <c r="B242" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C242" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D242" t="s">
         <v>3</v>

--- a/dataset/sql_datasets/individual_discipline.xlsx
+++ b/dataset/sql_datasets/individual_discipline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD6E7D7-C5F1-49ED-B1B9-FCC72C74D1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94490FC0-8B66-4105-B5E7-0B72491BEDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="8625" windowWidth="29295" windowHeight="23760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="28995" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="197">
-  <si>
-    <t>permittedGender</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="193">
   <si>
     <t>Archery</t>
   </si>
@@ -568,15 +565,6 @@
   </si>
   <si>
     <t>Greco-Roman 97kg</t>
-  </si>
-  <si>
-    <t>idSport</t>
-  </si>
-  <si>
-    <t>sportName</t>
-  </si>
-  <si>
-    <t>disciplineName</t>
   </si>
   <si>
     <t>BMX Freestyle</t>
@@ -942,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D242"/>
+  <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,28 +945,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>178</v>
+      <c r="A1">
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -986,27 +974,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1014,41 +1002,41 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -1056,66 +1044,66 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1126,27 +1114,27 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -1154,27 +1142,27 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -1182,27 +1170,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -1210,55 +1198,55 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -1266,27 +1254,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -1294,27 +1282,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -1322,27 +1310,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -1350,27 +1338,27 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -1378,27 +1366,27 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -1406,27 +1394,27 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -1434,41 +1422,41 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
@@ -1476,41 +1464,41 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -1518,27 +1506,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
@@ -1546,41 +1534,41 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
         <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
@@ -1588,27 +1576,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
         <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
@@ -1616,27 +1604,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
         <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -1644,27 +1632,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
         <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -1672,27 +1660,27 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
         <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
@@ -1700,27 +1688,27 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
         <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
@@ -1728,27 +1716,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
         <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
@@ -1756,27 +1744,27 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" t="s">
         <v>40</v>
-      </c>
-      <c r="C59" t="s">
-        <v>41</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
@@ -1784,24 +1772,24 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
@@ -1812,52 +1800,52 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
         <v>44</v>
       </c>
       <c r="D62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
         <v>45</v>
       </c>
       <c r="D63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
         <v>46</v>
       </c>
       <c r="D64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C65" t="s">
         <v>47</v>
@@ -1868,41 +1856,41 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
         <v>48</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
         <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
@@ -1910,38 +1898,38 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C69" t="s">
         <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C70" t="s">
         <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C71" t="s">
         <v>52</v>
@@ -1952,27 +1940,27 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="D72" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C73" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
@@ -1980,27 +1968,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C74" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
@@ -2008,27 +1996,27 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C76" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
@@ -2036,41 +2024,41 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D78" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C79" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
@@ -2078,41 +2066,41 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C81" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="C82" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D82" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C83" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
@@ -2120,27 +2108,27 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B85" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C85" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
@@ -2148,27 +2136,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B86" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
@@ -2176,27 +2164,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="D88" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B89" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
@@ -2204,27 +2192,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C90" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -2232,27 +2220,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B92" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" t="s">
         <v>182</v>
       </c>
-      <c r="C92" t="s">
-        <v>185</v>
-      </c>
       <c r="D92" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B93" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93" t="s">
         <v>182</v>
-      </c>
-      <c r="C93" t="s">
-        <v>186</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -2260,27 +2248,27 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C95" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
@@ -2288,27 +2276,27 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C96" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D96" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B97" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C97" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
@@ -2316,27 +2304,27 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B98" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="C98" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="D98" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B99" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" t="s">
         <v>57</v>
-      </c>
-      <c r="C99" t="s">
-        <v>58</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
@@ -2344,27 +2332,27 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B100" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C100" t="s">
         <v>58</v>
       </c>
       <c r="D100" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B101" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C101" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
@@ -2372,69 +2360,69 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B102" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D102" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C103" t="s">
+        <v>62</v>
+      </c>
+      <c r="D103" t="s">
         <v>61</v>
-      </c>
-      <c r="D103" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C104" t="s">
         <v>63</v>
       </c>
       <c r="D104" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C105" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D105" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B106" t="s">
+        <v>64</v>
+      </c>
+      <c r="C106" t="s">
         <v>65</v>
-      </c>
-      <c r="C106" t="s">
-        <v>66</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
@@ -2442,27 +2430,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B107" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C107" t="s">
         <v>66</v>
       </c>
       <c r="D107" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
@@ -2470,27 +2458,27 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B109" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C109" t="s">
         <v>67</v>
       </c>
       <c r="D109" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C110" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
@@ -2498,27 +2486,27 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B111" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C111" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D111" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B112" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" t="s">
         <v>69</v>
-      </c>
-      <c r="C112" t="s">
-        <v>70</v>
       </c>
       <c r="D112" t="s">
         <v>3</v>
@@ -2526,24 +2514,24 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B113" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C113" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D113" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C114" t="s">
         <v>72</v>
@@ -2554,24 +2542,24 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B115" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C115" t="s">
         <v>73</v>
       </c>
       <c r="D115" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C116" t="s">
         <v>74</v>
@@ -2582,52 +2570,52 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C117" t="s">
         <v>75</v>
       </c>
       <c r="D117" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B118" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C118" t="s">
         <v>76</v>
       </c>
       <c r="D118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B119" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C119" t="s">
         <v>77</v>
       </c>
       <c r="D119" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B120" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C120" t="s">
         <v>78</v>
@@ -2638,24 +2626,24 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B121" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C121" t="s">
         <v>79</v>
       </c>
       <c r="D121" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B122" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C122" t="s">
         <v>80</v>
@@ -2666,24 +2654,24 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B123" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C123" t="s">
         <v>81</v>
       </c>
       <c r="D123" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B124" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C124" t="s">
         <v>82</v>
@@ -2694,55 +2682,55 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B125" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C125" t="s">
         <v>83</v>
       </c>
       <c r="D125" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B126" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C126" t="s">
         <v>84</v>
       </c>
       <c r="D126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B127" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C127" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D127" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B128" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" t="s">
         <v>86</v>
-      </c>
-      <c r="C128" t="s">
-        <v>87</v>
       </c>
       <c r="D128" t="s">
         <v>3</v>
@@ -2750,38 +2738,38 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B129" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C129" t="s">
         <v>87</v>
       </c>
       <c r="D129" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B130" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C130" t="s">
         <v>88</v>
       </c>
       <c r="D130" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B131" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C131" t="s">
         <v>89</v>
@@ -2792,69 +2780,69 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B132" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C132" t="s">
         <v>90</v>
       </c>
       <c r="D132" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B133" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C133" t="s">
         <v>91</v>
       </c>
       <c r="D133" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B134" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C134" t="s">
         <v>92</v>
       </c>
       <c r="D134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B135" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C135" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D135" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B136" t="s">
+        <v>93</v>
+      </c>
+      <c r="C136" t="s">
         <v>94</v>
-      </c>
-      <c r="C136" t="s">
-        <v>95</v>
       </c>
       <c r="D136" t="s">
         <v>3</v>
@@ -2862,27 +2850,27 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B137" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C137" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B138" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C138" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
@@ -2890,52 +2878,52 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B139" t="s">
         <v>96</v>
       </c>
       <c r="C139" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B140" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
-      </c>
-      <c r="D140" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B141" t="s">
         <v>97</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B142" t="s">
+        <v>97</v>
+      </c>
+      <c r="C142" t="s">
         <v>98</v>
-      </c>
-      <c r="C142" t="s">
-        <v>99</v>
       </c>
       <c r="D142" t="s">
         <v>3</v>
@@ -2943,38 +2931,38 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B143" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C143" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D143" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B144" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C144" t="s">
         <v>101</v>
       </c>
       <c r="D144" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B145" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C145" t="s">
         <v>102</v>
@@ -2985,27 +2973,27 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B146" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C146" t="s">
         <v>103</v>
       </c>
       <c r="D146" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B147" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C147" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D147" t="s">
         <v>3</v>
@@ -3013,27 +3001,27 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B148" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C148" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D148" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B149" t="s">
+        <v>104</v>
+      </c>
+      <c r="C149" t="s">
         <v>105</v>
-      </c>
-      <c r="C149" t="s">
-        <v>106</v>
       </c>
       <c r="D149" t="s">
         <v>3</v>
@@ -3041,27 +3029,27 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B150" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C150" t="s">
         <v>106</v>
       </c>
       <c r="D150" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B151" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C151" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D151" t="s">
         <v>3</v>
@@ -3069,55 +3057,55 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B152" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C152" t="s">
         <v>107</v>
       </c>
       <c r="D152" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B153" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C153" t="s">
         <v>108</v>
       </c>
       <c r="D153" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B154" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C154" t="s">
         <v>109</v>
       </c>
       <c r="D154" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B155" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C155" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D155" t="s">
         <v>3</v>
@@ -3125,27 +3113,27 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B156" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C156" t="s">
         <v>110</v>
       </c>
       <c r="D156" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B157" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C157" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D157" t="s">
         <v>3</v>
@@ -3153,27 +3141,27 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B158" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C158" t="s">
         <v>111</v>
       </c>
       <c r="D158" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B159" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C159" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D159" t="s">
         <v>3</v>
@@ -3181,27 +3169,27 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B160" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C160" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="D160" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B161" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C161" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D161" t="s">
         <v>3</v>
@@ -3209,27 +3197,27 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B162" t="s">
+        <v>112</v>
+      </c>
+      <c r="C162" t="s">
         <v>113</v>
       </c>
-      <c r="C162" t="s">
-        <v>55</v>
-      </c>
       <c r="D162" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B163" t="s">
+        <v>112</v>
+      </c>
+      <c r="C163" t="s">
         <v>113</v>
-      </c>
-      <c r="C163" t="s">
-        <v>114</v>
       </c>
       <c r="D163" t="s">
         <v>3</v>
@@ -3237,27 +3225,27 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B164" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C164" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D164" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B165" t="s">
+        <v>114</v>
+      </c>
+      <c r="C165" t="s">
         <v>115</v>
-      </c>
-      <c r="C165" t="s">
-        <v>116</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
@@ -3265,41 +3253,41 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B166" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C166" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="D166" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B167" t="s">
         <v>117</v>
       </c>
       <c r="C167" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="D167" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B168" t="s">
+        <v>117</v>
+      </c>
+      <c r="C168" t="s">
         <v>118</v>
-      </c>
-      <c r="C168" t="s">
-        <v>119</v>
       </c>
       <c r="D168" t="s">
         <v>3</v>
@@ -3307,27 +3295,27 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B169" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C169" t="s">
         <v>119</v>
       </c>
       <c r="D169" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B170" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C170" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
@@ -3335,27 +3323,27 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B171" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C171" t="s">
         <v>120</v>
       </c>
       <c r="D171" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B172" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C172" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D172" t="s">
         <v>3</v>
@@ -3363,27 +3351,27 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B173" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C173" t="s">
         <v>121</v>
       </c>
       <c r="D173" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B174" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C174" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D174" t="s">
         <v>3</v>
@@ -3391,27 +3379,27 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B175" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C175" t="s">
         <v>122</v>
       </c>
       <c r="D175" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B176" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C176" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D176" t="s">
         <v>3</v>
@@ -3419,27 +3407,27 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B177" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C177" t="s">
         <v>123</v>
       </c>
       <c r="D177" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B178" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C178" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D178" t="s">
         <v>3</v>
@@ -3447,27 +3435,27 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B179" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C179" t="s">
         <v>124</v>
       </c>
       <c r="D179" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B180" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C180" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D180" t="s">
         <v>3</v>
@@ -3475,27 +3463,27 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B181" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C181" t="s">
         <v>125</v>
       </c>
       <c r="D181" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B182" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C182" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D182" t="s">
         <v>3</v>
@@ -3503,27 +3491,27 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B183" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C183" t="s">
         <v>126</v>
       </c>
       <c r="D183" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B184" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C184" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D184" t="s">
         <v>3</v>
@@ -3531,27 +3519,27 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B185" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C185" t="s">
         <v>127</v>
       </c>
       <c r="D185" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B186" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C186" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
@@ -3559,27 +3547,27 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B187" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C187" t="s">
         <v>128</v>
       </c>
       <c r="D187" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B188" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C188" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
@@ -3587,27 +3575,27 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B189" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C189" t="s">
         <v>129</v>
       </c>
       <c r="D189" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B190" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C190" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D190" t="s">
         <v>3</v>
@@ -3615,27 +3603,27 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B191" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C191" t="s">
         <v>130</v>
       </c>
       <c r="D191" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B192" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C192" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D192" t="s">
         <v>3</v>
@@ -3643,27 +3631,27 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B193" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C193" t="s">
         <v>131</v>
       </c>
       <c r="D193" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B194" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C194" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
@@ -3671,27 +3659,27 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B195" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C195" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="D195" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B196" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D196" t="s">
         <v>3</v>
@@ -3699,38 +3687,38 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B197" t="s">
         <v>133</v>
       </c>
       <c r="C197" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="D197" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B198" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C198" t="s">
         <v>135</v>
       </c>
       <c r="D198" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B199" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C199" t="s">
         <v>136</v>
@@ -3741,38 +3729,38 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B200" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C200" t="s">
         <v>137</v>
       </c>
       <c r="D200" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B201" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C201" t="s">
         <v>138</v>
       </c>
       <c r="D201" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B202" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C202" t="s">
         <v>139</v>
@@ -3783,55 +3771,55 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B203" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C203" t="s">
         <v>140</v>
       </c>
       <c r="D203" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B204" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C204" t="s">
         <v>141</v>
       </c>
       <c r="D204" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C205" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="D205" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C206" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
@@ -3839,24 +3827,24 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>143</v>
       </c>
       <c r="C207" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D207" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C208" t="s">
         <v>3</v>
@@ -3867,24 +3855,24 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>144</v>
       </c>
       <c r="C209" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D209" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B210" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C210" t="s">
         <v>3</v>
@@ -3895,24 +3883,24 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B211" t="s">
         <v>145</v>
       </c>
       <c r="C211" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="D211" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B212" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C212" t="s">
         <v>147</v>
@@ -3923,24 +3911,24 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B213" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C213" t="s">
         <v>148</v>
       </c>
       <c r="D213" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B214" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C214" t="s">
         <v>149</v>
@@ -3951,52 +3939,52 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B215" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C215" t="s">
         <v>150</v>
       </c>
       <c r="D215" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B216" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C216" t="s">
         <v>151</v>
       </c>
       <c r="D216" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B217" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C217" t="s">
         <v>152</v>
       </c>
       <c r="D217" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B218" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C218" t="s">
         <v>153</v>
@@ -4007,38 +3995,38 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B219" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C219" t="s">
         <v>154</v>
       </c>
       <c r="D219" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B220" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C220" t="s">
         <v>155</v>
       </c>
       <c r="D220" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B221" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C221" t="s">
         <v>156</v>
@@ -4049,52 +4037,52 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B222" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C222" t="s">
         <v>157</v>
       </c>
       <c r="D222" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B223" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C223" t="s">
         <v>158</v>
       </c>
       <c r="D223" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B224" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C224" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D224" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B225" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C225" t="s">
         <v>161</v>
@@ -4105,41 +4093,41 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B226" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C226" t="s">
         <v>162</v>
       </c>
       <c r="D226" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B227" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C227" t="s">
         <v>163</v>
       </c>
       <c r="D227" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B228" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C228" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
@@ -4147,38 +4135,38 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B229" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C229" t="s">
         <v>164</v>
       </c>
       <c r="D229" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B230" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C230" t="s">
         <v>165</v>
       </c>
       <c r="D230" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B231" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C231" t="s">
         <v>166</v>
@@ -4189,24 +4177,24 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B232" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C232" t="s">
         <v>167</v>
       </c>
       <c r="D232" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B233" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C233" t="s">
         <v>168</v>
@@ -4217,128 +4205,114 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B234" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C234" t="s">
         <v>169</v>
       </c>
       <c r="D234" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B235" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C235" t="s">
         <v>170</v>
       </c>
       <c r="D235" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B236" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C236" t="s">
         <v>171</v>
       </c>
       <c r="D236" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B237" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C237" t="s">
         <v>172</v>
       </c>
       <c r="D237" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B238" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C238" t="s">
         <v>173</v>
       </c>
       <c r="D238" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B239" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C239" t="s">
         <v>174</v>
       </c>
       <c r="D239" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B240" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C240" t="s">
         <v>175</v>
       </c>
       <c r="D240" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B241" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C241" t="s">
         <v>176</v>
       </c>
       <c r="D241" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>336</v>
-      </c>
-      <c r="B242" t="s">
-        <v>160</v>
-      </c>
-      <c r="C242" t="s">
-        <v>177</v>
-      </c>
-      <c r="D242" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/sql_datasets/individual_discipline.xlsx
+++ b/dataset/sql_datasets/individual_discipline.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94490FC0-8B66-4105-B5E7-0B72491BEDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AF9F53-2DA0-4B05-9794-89D3C328D52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="28995" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$240</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="193">
   <si>
     <t>Archery</t>
   </si>
@@ -930,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D241"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2892,18 +2895,21 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B140" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>98</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B141" t="s">
         <v>97</v>
@@ -2912,32 +2918,32 @@
         <v>98</v>
       </c>
       <c r="D141" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B142" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C142" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B143" t="s">
         <v>99</v>
       </c>
       <c r="C143" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D143" t="s">
         <v>2</v>
@@ -2945,35 +2951,35 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B144" t="s">
         <v>99</v>
       </c>
       <c r="C144" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D144" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B145" t="s">
         <v>99</v>
       </c>
       <c r="C145" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D145" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B146" t="s">
         <v>99</v>
@@ -2982,26 +2988,26 @@
         <v>103</v>
       </c>
       <c r="D146" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B147" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C147" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D147" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B148" t="s">
         <v>104</v>
@@ -3010,26 +3016,26 @@
         <v>105</v>
       </c>
       <c r="D148" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B149" t="s">
         <v>104</v>
       </c>
       <c r="C149" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D149" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B150" t="s">
         <v>104</v>
@@ -3038,18 +3044,18 @@
         <v>106</v>
       </c>
       <c r="D150" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B151" t="s">
         <v>104</v>
       </c>
       <c r="C151" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D151" t="s">
         <v>3</v>
@@ -3057,27 +3063,27 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B152" t="s">
         <v>104</v>
       </c>
       <c r="C152" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D152" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B153" t="s">
         <v>104</v>
       </c>
       <c r="C153" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D153" t="s">
         <v>2</v>
@@ -3085,7 +3091,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B154" t="s">
         <v>104</v>
@@ -3094,26 +3100,26 @@
         <v>109</v>
       </c>
       <c r="D154" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B155" t="s">
         <v>104</v>
       </c>
       <c r="C155" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D155" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B156" t="s">
         <v>104</v>
@@ -3122,26 +3128,26 @@
         <v>110</v>
       </c>
       <c r="D156" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B157" t="s">
         <v>104</v>
       </c>
       <c r="C157" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D157" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B158" t="s">
         <v>104</v>
@@ -3150,26 +3156,26 @@
         <v>111</v>
       </c>
       <c r="D158" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B159" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C159" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="D159" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B160" t="s">
         <v>112</v>
@@ -3178,26 +3184,26 @@
         <v>54</v>
       </c>
       <c r="D160" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B161" t="s">
         <v>112</v>
       </c>
       <c r="C161" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="D161" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B162" t="s">
         <v>112</v>
@@ -3206,26 +3212,26 @@
         <v>113</v>
       </c>
       <c r="D162" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B163" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C163" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D163" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B164" t="s">
         <v>114</v>
@@ -3234,18 +3240,18 @@
         <v>115</v>
       </c>
       <c r="D164" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B165" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C165" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
@@ -3253,21 +3259,21 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B166" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C166" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="D166" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B167" t="s">
         <v>117</v>
@@ -3276,26 +3282,26 @@
         <v>118</v>
       </c>
       <c r="D167" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B168" t="s">
         <v>117</v>
       </c>
       <c r="C168" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D168" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B169" t="s">
         <v>117</v>
@@ -3304,26 +3310,26 @@
         <v>119</v>
       </c>
       <c r="D169" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B170" t="s">
         <v>117</v>
       </c>
       <c r="C170" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D170" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B171" t="s">
         <v>117</v>
@@ -3332,26 +3338,26 @@
         <v>120</v>
       </c>
       <c r="D171" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B172" t="s">
         <v>117</v>
       </c>
       <c r="C172" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D172" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B173" t="s">
         <v>117</v>
@@ -3360,26 +3366,26 @@
         <v>121</v>
       </c>
       <c r="D173" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B174" t="s">
         <v>117</v>
       </c>
       <c r="C174" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D174" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B175" t="s">
         <v>117</v>
@@ -3388,26 +3394,26 @@
         <v>122</v>
       </c>
       <c r="D175" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B176" t="s">
         <v>117</v>
       </c>
       <c r="C176" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D176" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B177" t="s">
         <v>117</v>
@@ -3416,26 +3422,26 @@
         <v>123</v>
       </c>
       <c r="D177" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B178" t="s">
         <v>117</v>
       </c>
       <c r="C178" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D178" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B179" t="s">
         <v>117</v>
@@ -3444,26 +3450,26 @@
         <v>124</v>
       </c>
       <c r="D179" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B180" t="s">
         <v>117</v>
       </c>
       <c r="C180" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D180" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B181" t="s">
         <v>117</v>
@@ -3472,26 +3478,26 @@
         <v>125</v>
       </c>
       <c r="D181" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B182" t="s">
         <v>117</v>
       </c>
       <c r="C182" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D182" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B183" t="s">
         <v>117</v>
@@ -3500,26 +3506,26 @@
         <v>126</v>
       </c>
       <c r="D183" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B184" t="s">
         <v>117</v>
       </c>
       <c r="C184" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D184" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B185" t="s">
         <v>117</v>
@@ -3528,26 +3534,26 @@
         <v>127</v>
       </c>
       <c r="D185" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B186" t="s">
         <v>117</v>
       </c>
       <c r="C186" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D186" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B187" t="s">
         <v>117</v>
@@ -3556,26 +3562,26 @@
         <v>128</v>
       </c>
       <c r="D187" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B188" t="s">
         <v>117</v>
       </c>
       <c r="C188" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D188" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B189" t="s">
         <v>117</v>
@@ -3584,26 +3590,26 @@
         <v>129</v>
       </c>
       <c r="D189" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B190" t="s">
         <v>117</v>
       </c>
       <c r="C190" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D190" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B191" t="s">
         <v>117</v>
@@ -3612,26 +3618,26 @@
         <v>130</v>
       </c>
       <c r="D191" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B192" t="s">
         <v>117</v>
       </c>
       <c r="C192" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D192" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B193" t="s">
         <v>117</v>
@@ -3640,26 +3646,26 @@
         <v>131</v>
       </c>
       <c r="D193" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B194" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C194" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="D194" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B195" t="s">
         <v>132</v>
@@ -3668,18 +3674,18 @@
         <v>40</v>
       </c>
       <c r="D195" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B196" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C196" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="D196" t="s">
         <v>3</v>
@@ -3687,41 +3693,41 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B197" t="s">
         <v>133</v>
       </c>
       <c r="C197" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D197" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B198" t="s">
         <v>133</v>
       </c>
       <c r="C198" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D198" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B199" t="s">
         <v>133</v>
       </c>
       <c r="C199" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D199" t="s">
         <v>3</v>
@@ -3729,55 +3735,55 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B200" t="s">
         <v>133</v>
       </c>
       <c r="C200" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D200" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B201" t="s">
         <v>133</v>
       </c>
       <c r="C201" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D201" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B202" t="s">
         <v>133</v>
       </c>
       <c r="C202" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D202" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B203" t="s">
         <v>133</v>
       </c>
       <c r="C203" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D203" t="s">
         <v>2</v>
@@ -3785,13 +3791,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C204" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="D204" t="s">
         <v>2</v>
@@ -3799,7 +3805,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B205" t="s">
         <v>142</v>
@@ -3808,130 +3814,130 @@
         <v>40</v>
       </c>
       <c r="D205" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B206" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C206" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D206" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B207" t="s">
         <v>143</v>
       </c>
       <c r="C207" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D207" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B208" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C208" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D208" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B209" t="s">
         <v>144</v>
       </c>
       <c r="C209" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D209" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B210" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C210" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="D210" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B211" t="s">
         <v>145</v>
       </c>
       <c r="C211" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D211" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B212" t="s">
         <v>145</v>
       </c>
       <c r="C212" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D212" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B213" t="s">
         <v>145</v>
       </c>
       <c r="C213" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D213" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B214" t="s">
         <v>145</v>
       </c>
       <c r="C214" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D214" t="s">
         <v>3</v>
@@ -3939,13 +3945,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B215" t="s">
         <v>145</v>
       </c>
       <c r="C215" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D215" t="s">
         <v>3</v>
@@ -3953,55 +3959,55 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B216" t="s">
         <v>145</v>
       </c>
       <c r="C216" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D216" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B217" t="s">
         <v>145</v>
       </c>
       <c r="C217" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D217" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B218" t="s">
         <v>145</v>
       </c>
       <c r="C218" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D218" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B219" t="s">
         <v>145</v>
       </c>
       <c r="C219" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D219" t="s">
         <v>2</v>
@@ -4009,41 +4015,41 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B220" t="s">
         <v>145</v>
       </c>
       <c r="C220" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D220" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B221" t="s">
         <v>145</v>
       </c>
       <c r="C221" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D221" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B222" t="s">
         <v>145</v>
       </c>
       <c r="C222" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D222" t="s">
         <v>2</v>
@@ -4051,13 +4057,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B223" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C223" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D223" t="s">
         <v>2</v>
@@ -4065,27 +4071,27 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B224" t="s">
         <v>159</v>
       </c>
       <c r="C224" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D224" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B225" t="s">
         <v>159</v>
       </c>
       <c r="C225" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D225" t="s">
         <v>3</v>
@@ -4093,21 +4099,21 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B226" t="s">
         <v>159</v>
       </c>
       <c r="C226" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D226" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B227" t="s">
         <v>159</v>
@@ -4116,18 +4122,18 @@
         <v>163</v>
       </c>
       <c r="D227" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B228" t="s">
         <v>159</v>
       </c>
       <c r="C228" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
@@ -4135,83 +4141,83 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B229" t="s">
         <v>159</v>
       </c>
       <c r="C229" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D229" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B230" t="s">
         <v>159</v>
       </c>
       <c r="C230" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D230" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B231" t="s">
         <v>159</v>
       </c>
       <c r="C231" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D231" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B232" t="s">
         <v>159</v>
       </c>
       <c r="C232" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D232" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B233" t="s">
         <v>159</v>
       </c>
       <c r="C233" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D233" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B234" t="s">
         <v>159</v>
       </c>
       <c r="C234" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D234" t="s">
         <v>2</v>
@@ -4219,13 +4225,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B235" t="s">
         <v>159</v>
       </c>
       <c r="C235" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D235" t="s">
         <v>2</v>
@@ -4233,13 +4239,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B236" t="s">
         <v>159</v>
       </c>
       <c r="C236" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D236" t="s">
         <v>2</v>
@@ -4247,13 +4253,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B237" t="s">
         <v>159</v>
       </c>
       <c r="C237" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D237" t="s">
         <v>2</v>
@@ -4261,13 +4267,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B238" t="s">
         <v>159</v>
       </c>
       <c r="C238" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D238" t="s">
         <v>2</v>
@@ -4275,13 +4281,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B239" t="s">
         <v>159</v>
       </c>
       <c r="C239" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D239" t="s">
         <v>2</v>
@@ -4289,33 +4295,20 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B240" t="s">
         <v>159</v>
       </c>
       <c r="C240" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D240" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>336</v>
-      </c>
-      <c r="B241" t="s">
-        <v>159</v>
-      </c>
-      <c r="C241" t="s">
-        <v>176</v>
-      </c>
-      <c r="D241" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:D240" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dataset/sql_datasets/individual_discipline.xlsx
+++ b/dataset/sql_datasets/individual_discipline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AF9F53-2DA0-4B05-9794-89D3C328D52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CAB674-47E2-4AB6-B67B-59F9412D49DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4308,7 +4308,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D240" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>